--- a/SourceData/Dictionaries/zipcode_breakdowns_DataDictionary.xlsx
+++ b/SourceData/Dictionaries/zipcode_breakdowns_DataDictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\OpenDataLaw\DataDictionaries_New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fec0463fcadf97d7/Desktop/GitClones/ETL-Project/SourceData/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_FA77CE34BCB4933950DF15F95ADB7E8111139697" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89B633F2-81F6-4AC8-8EB8-57D456E6BA5E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Info" sheetId="7" r:id="rId1"/>
@@ -459,7 +460,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -581,12 +582,36 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -721,7 +746,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -784,9 +809,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -843,12 +865,42 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1311,13 +1363,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1333,20 +1385,20 @@
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1393,22 +1445,22 @@
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="34"/>
     </row>
     <row r="13" spans="1:2" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="34"/>
     </row>
     <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -1424,10 +1476,10 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>frequency</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>category</formula1>
     </dataValidation>
   </dataValidations>
@@ -1439,29 +1491,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="22" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1498,364 +1550,444 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="41" t="s">
         <v>51</v>
       </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="41" t="s">
         <v>52</v>
       </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="41" t="s">
         <v>53</v>
       </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="41" t="s">
         <v>54</v>
       </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="45" t="s">
         <v>55</v>
       </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="45" t="s">
         <v>99</v>
       </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="45" t="s">
         <v>56</v>
       </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="45" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="45" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="45" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="45" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="45" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="45" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="45" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="45" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="45" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="45" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="45" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+    </row>
+    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="47" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+    </row>
+    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="47" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="47" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="47" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="47" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+    </row>
+    <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="47" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+    </row>
+    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="47" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+    </row>
+    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="47" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="47" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+    </row>
+    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A41" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="49" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+    </row>
+    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A42" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="49" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+    </row>
+    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A43" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="49" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+    </row>
+    <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A44" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="49" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+    </row>
+    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A45" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="49" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+    </row>
+    <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A46" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="49" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+    </row>
+    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A47" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="49" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+    </row>
+    <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A48" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="49" t="s">
         <v>89</v>
       </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
@@ -1870,7 +2002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -1879,19 +2011,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="30" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="29" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -1922,76 +2054,76 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2005,7 +2137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2019,16 +2151,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2088,10 +2220,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>26</v>
       </c>
     </row>
